--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>asdplzktli</t>
+  </si>
+  <si>
+    <t>lrqrjgckih</t>
+  </si>
+  <si>
+    <t>gcchoxzgtt</t>
+  </si>
+  <si>
+    <t>htykysbwkq</t>
+  </si>
+  <si>
+    <t>zdusqmrdar</t>
   </si>
   <si>
     <t>title</t>
@@ -401,7 +413,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -435,6 +447,22 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -463,55 +491,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>43804</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>42343</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>43806</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -45,6 +45,36 @@
   </si>
   <si>
     <t>zdusqmrdar</t>
+  </si>
+  <si>
+    <t>fvjtyhmlph</t>
+  </si>
+  <si>
+    <t>eqopsznypz</t>
+  </si>
+  <si>
+    <t>pvwvrwnrvg</t>
+  </si>
+  <si>
+    <t>mgktrsngeu</t>
+  </si>
+  <si>
+    <t>qcglnedetg</t>
+  </si>
+  <si>
+    <t>ljliosdtxj</t>
+  </si>
+  <si>
+    <t>kyysyszube</t>
+  </si>
+  <si>
+    <t>rbbruyqbzp</t>
+  </si>
+  <si>
+    <t>vhywsqnpdu</t>
+  </si>
+  <si>
+    <t>okwcqfxwal</t>
   </si>
   <si>
     <t>title</t>
@@ -413,7 +443,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -463,6 +493,46 @@
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -491,55 +561,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>43804</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>42343</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>43806</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="1"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="usersiInfo" sheetId="1" r:id="rId1"/>
-    <s:sheet name="todosInfo" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\bluebrid\base-knowledge\python\testingWanAndroid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B97BE6-67B3-4833-AFD8-21E600A36511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1830" yWindow="3735" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="usersiInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="todosInfo" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -105,39 +111,51 @@
   </si>
   <si>
     <t>Details 3</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>Todo4</t>
+  </si>
+  <si>
+    <t>Details 4</t>
+  </si>
+  <si>
+    <t>2019-12-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="164"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFCE9178"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFC586C0"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,26 +171,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,24 +464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="19.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="10.85546875"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -471,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -479,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -487,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -495,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -503,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -511,7 +533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -519,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -527,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -536,30 +558,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="4" width="10.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="11.7109375"/>
+    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -573,47 +591,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>43804</v>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>42343</v>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>43806</v>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\bluebrid\base-knowledge\python\testingWanAndroid\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B97BE6-67B3-4833-AFD8-21E600A36511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1830" yWindow="3735" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="usersiInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="todosInfo" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="1"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="usersiInfo" sheetId="1" r:id="rId1"/>
+    <s:sheet name="todosInfo" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>username</t>
   </si>
@@ -83,6 +77,12 @@
     <t>okwcqfxwal</t>
   </si>
   <si>
+    <t>dsnxiszawn</t>
+  </si>
+  <si>
+    <t>rwmyojbuor</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -101,6 +101,9 @@
     <t>Details 1</t>
   </si>
   <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
     <t>只用这一个</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
   </si>
   <si>
     <t>Details 3</t>
-  </si>
-  <si>
-    <t>2019-12-05</t>
   </si>
   <si>
     <t>2019-12-06</t>
@@ -131,31 +131,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFCE9178"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC586C0"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFC586C0"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,34 +172,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -464,20 +457,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="19.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -493,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -501,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -509,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -517,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -525,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -533,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -541,7 +538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -549,7 +546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -557,95 +554,107 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="4" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>username</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>rwmyojbuor</t>
+  </si>
+  <si>
+    <t>kdwhqjkffb</t>
+  </si>
+  <si>
+    <t>koaulvmzms</t>
   </si>
   <si>
     <t>title</t>
@@ -462,7 +468,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -560,6 +566,14 @@
       </c>
       <c r="B11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -588,69 +602,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>username</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>koaulvmzms</t>
+  </si>
+  <si>
+    <t>oeaudvepqf</t>
+  </si>
+  <si>
+    <t>ylvfoihbzg</t>
   </si>
   <si>
     <t>title</t>
@@ -468,7 +474,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -574,6 +580,14 @@
       </c>
       <c r="B12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -602,69 +616,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>username</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>ylvfoihbzg</t>
+  </si>
+  <si>
+    <t>sdawvgrvub</t>
+  </si>
+  <si>
+    <t>hdkmsshowj</t>
   </si>
   <si>
     <t>title</t>
@@ -474,7 +480,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -588,6 +594,14 @@
       </c>
       <c r="B13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -616,69 +630,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/python/testingWanAndroid/datas.xlsx
+++ b/python/testingWanAndroid/datas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>username</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>hdkmsshowj</t>
+  </si>
+  <si>
+    <t>glntgcjcgv</t>
+  </si>
+  <si>
+    <t>ierwwgyqvt</t>
   </si>
   <si>
     <t>title</t>
@@ -480,7 +486,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -602,6 +608,14 @@
       </c>
       <c r="B14" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -630,69 +644,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
